--- a/data/pca/factorExposure/factorExposure_2015-04-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-04-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +723,51 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.02326472608859093</v>
+        <v>-0.0103971317602177</v>
       </c>
       <c r="C2">
-        <v>0.0246401265012982</v>
+        <v>-0.05182365244671232</v>
       </c>
       <c r="D2">
-        <v>0.1299179491694837</v>
+        <v>-0.1261840682417022</v>
       </c>
       <c r="E2">
-        <v>-0.0089766456495864</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.02454048129096227</v>
+      </c>
+      <c r="F2">
+        <v>-0.01930828085946391</v>
+      </c>
+      <c r="G2">
+        <v>0.0735752700413573</v>
+      </c>
+      <c r="H2">
+        <v>0.112386894287754</v>
+      </c>
+      <c r="I2">
+        <v>-0.08674264757785954</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +781,51 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.04371326907972427</v>
+        <v>-0.01682071526627421</v>
       </c>
       <c r="C4">
-        <v>0.06967323125313632</v>
+        <v>-0.1060555633941171</v>
       </c>
       <c r="D4">
-        <v>0.1064909719720581</v>
+        <v>-0.1277159988435735</v>
       </c>
       <c r="E4">
-        <v>-0.08706710246945772</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01635290258222788</v>
+      </c>
+      <c r="F4">
+        <v>-0.09223774764016346</v>
+      </c>
+      <c r="G4">
+        <v>-0.01596494116772177</v>
+      </c>
+      <c r="H4">
+        <v>0.06512140574113137</v>
+      </c>
+      <c r="I4">
+        <v>0.0696892363618726</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02463391994600819</v>
+        <v>-0.02944453031968127</v>
       </c>
       <c r="C6">
-        <v>0.01285886882589302</v>
+        <v>-0.03670220814810787</v>
       </c>
       <c r="D6">
-        <v>0.1271568397468281</v>
+        <v>-0.1219216674640456</v>
       </c>
       <c r="E6">
-        <v>-0.05313697075320434</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.06364715703722634</v>
+      </c>
+      <c r="F6">
+        <v>-0.04401137736631307</v>
+      </c>
+      <c r="G6">
+        <v>-0.02983752717220265</v>
+      </c>
+      <c r="H6">
+        <v>0.03635006632463999</v>
+      </c>
+      <c r="I6">
+        <v>-0.004439068398832569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.001890564723286859</v>
+        <v>-0.005769814002879554</v>
       </c>
       <c r="C7">
-        <v>0.0232177684639805</v>
+        <v>-0.03855062221347053</v>
       </c>
       <c r="D7">
-        <v>0.1074976585610825</v>
+        <v>-0.09615588248583068</v>
       </c>
       <c r="E7">
-        <v>-0.01537281009573583</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.04925518686643004</v>
+      </c>
+      <c r="F7">
+        <v>-0.002997558626662546</v>
+      </c>
+      <c r="G7">
+        <v>-0.06110084161233603</v>
+      </c>
+      <c r="H7">
+        <v>0.07241433640119814</v>
+      </c>
+      <c r="I7">
+        <v>0.03949087963332942</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-6.782491666889805e-05</v>
+        <v>0.007602992869342259</v>
       </c>
       <c r="C8">
-        <v>0.024941044179699</v>
+        <v>-0.03562592450781678</v>
       </c>
       <c r="D8">
-        <v>0.08556300529922554</v>
+        <v>-0.07564913283448244</v>
       </c>
       <c r="E8">
-        <v>-0.03865140544208779</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.03549868033440957</v>
+      </c>
+      <c r="F8">
+        <v>-0.04990866974915423</v>
+      </c>
+      <c r="G8">
+        <v>0.04889560167556958</v>
+      </c>
+      <c r="H8">
+        <v>0.04884144544968187</v>
+      </c>
+      <c r="I8">
+        <v>0.01902259134483758</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03447312130550056</v>
+        <v>-0.01175535177793449</v>
       </c>
       <c r="C9">
-        <v>0.06078123414867261</v>
+        <v>-0.08800647219619183</v>
       </c>
       <c r="D9">
-        <v>0.1108460798068469</v>
+        <v>-0.1094142064450053</v>
       </c>
       <c r="E9">
-        <v>-0.06765251281902354</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01576903535323619</v>
+      </c>
+      <c r="F9">
+        <v>-0.05974795043504211</v>
+      </c>
+      <c r="G9">
+        <v>-0.04190456608915061</v>
+      </c>
+      <c r="H9">
+        <v>0.05598145863919789</v>
+      </c>
+      <c r="I9">
+        <v>0.03318489421358049</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1728973397155387</v>
+        <v>-0.2403366748658764</v>
       </c>
       <c r="C10">
-        <v>-0.1730773884743153</v>
+        <v>0.08888417395644989</v>
       </c>
       <c r="D10">
-        <v>-0.009086364441469076</v>
+        <v>0.00535332530293872</v>
       </c>
       <c r="E10">
-        <v>-0.049672377335704</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01434180080928968</v>
+      </c>
+      <c r="F10">
+        <v>-0.048841989302845</v>
+      </c>
+      <c r="G10">
+        <v>0.01322900155093886</v>
+      </c>
+      <c r="H10">
+        <v>-0.01363438109521829</v>
+      </c>
+      <c r="I10">
+        <v>-0.0142279520601575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.01933412195746607</v>
+        <v>-0.009636176753774739</v>
       </c>
       <c r="C11">
-        <v>0.04218648061694582</v>
+        <v>-0.05901519071043055</v>
       </c>
       <c r="D11">
-        <v>0.04152734684589469</v>
+        <v>-0.04004000707524757</v>
       </c>
       <c r="E11">
-        <v>0.01668650390715679</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.02177844632420515</v>
+      </c>
+      <c r="F11">
+        <v>0.01623401262097018</v>
+      </c>
+      <c r="G11">
+        <v>-0.03452210373627731</v>
+      </c>
+      <c r="H11">
+        <v>0.03787175033187587</v>
+      </c>
+      <c r="I11">
+        <v>0.03166787869506207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.01792397988000325</v>
+        <v>-0.008832881573379173</v>
       </c>
       <c r="C12">
-        <v>0.04272551716675865</v>
+        <v>-0.05068671328198501</v>
       </c>
       <c r="D12">
-        <v>0.05380670873277808</v>
+        <v>-0.04409611564625705</v>
       </c>
       <c r="E12">
-        <v>0.008025099048402956</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.0163636211841623</v>
+      </c>
+      <c r="F12">
+        <v>0.01928880484738456</v>
+      </c>
+      <c r="G12">
+        <v>-0.05527405690103555</v>
+      </c>
+      <c r="H12">
+        <v>0.0446111015752888</v>
+      </c>
+      <c r="I12">
+        <v>0.004004473838266816</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.005548169311808553</v>
+        <v>0.004907801275782817</v>
       </c>
       <c r="C13">
-        <v>0.02461216627075011</v>
+        <v>-0.04937619555217825</v>
       </c>
       <c r="D13">
-        <v>0.1291950692013242</v>
+        <v>-0.1433345607211255</v>
       </c>
       <c r="E13">
-        <v>-0.04415941699039604</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.03719131605717337</v>
+      </c>
+      <c r="F13">
+        <v>-0.02809764514535725</v>
+      </c>
+      <c r="G13">
+        <v>-0.01861611544479165</v>
+      </c>
+      <c r="H13">
+        <v>0.074921167255243</v>
+      </c>
+      <c r="I13">
+        <v>-0.04833839150975553</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.004742696368524212</v>
+        <v>-0.002508530524558108</v>
       </c>
       <c r="C14">
-        <v>0.01803735696031459</v>
+        <v>-0.03278245010026677</v>
       </c>
       <c r="D14">
-        <v>0.08512998863210997</v>
+        <v>-0.0966390412483821</v>
       </c>
       <c r="E14">
-        <v>-0.01682244382408241</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.05300988968464201</v>
+      </c>
+      <c r="F14">
+        <v>-0.02607704382142946</v>
+      </c>
+      <c r="G14">
+        <v>-0.06007685623835185</v>
+      </c>
+      <c r="H14">
+        <v>0.1318442752059166</v>
+      </c>
+      <c r="I14">
+        <v>-0.008681899721980368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.002759916417606659</v>
+        <v>0.004645443150921785</v>
       </c>
       <c r="C15">
-        <v>0.01015734488013191</v>
+        <v>-0.02869038502475528</v>
       </c>
       <c r="D15">
-        <v>0.03598861990840275</v>
+        <v>-0.06086286513934564</v>
       </c>
       <c r="E15">
-        <v>0.003711487927479852</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.01487686038349657</v>
+      </c>
+      <c r="F15">
+        <v>-0.007565855395109877</v>
+      </c>
+      <c r="G15">
+        <v>-0.008044066908026589</v>
+      </c>
+      <c r="H15">
+        <v>0.05618269652528831</v>
+      </c>
+      <c r="I15">
+        <v>0.0159860940969166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.01770145529976436</v>
+        <v>-0.008881521560911704</v>
       </c>
       <c r="C16">
-        <v>0.03790928121406865</v>
+        <v>-0.05079608862141961</v>
       </c>
       <c r="D16">
-        <v>0.04713859151611903</v>
+        <v>-0.04140234106945682</v>
       </c>
       <c r="E16">
-        <v>0.00660485849654713</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.0230000055147643</v>
+      </c>
+      <c r="F16">
+        <v>0.01097088100976056</v>
+      </c>
+      <c r="G16">
+        <v>-0.04217040105749733</v>
+      </c>
+      <c r="H16">
+        <v>0.03131147022319963</v>
+      </c>
+      <c r="I16">
+        <v>0.01842076142712052</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.001674856668373714</v>
+        <v>0.003495038423426992</v>
       </c>
       <c r="C19">
-        <v>0.01944788089395007</v>
+        <v>-0.01499859909880187</v>
       </c>
       <c r="D19">
-        <v>0.07709439571912335</v>
+        <v>-0.05285458686247257</v>
       </c>
       <c r="E19">
-        <v>-0.02897002616908218</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.008752046034984464</v>
+      </c>
+      <c r="F19">
+        <v>-0.01401936263730196</v>
+      </c>
+      <c r="G19">
+        <v>-0.00680376371321851</v>
+      </c>
+      <c r="H19">
+        <v>0.04938869567525361</v>
+      </c>
+      <c r="I19">
+        <v>-0.01716439146746019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.003334128554558899</v>
+        <v>-0.004434105151251651</v>
       </c>
       <c r="C20">
-        <v>0.02476265068539246</v>
+        <v>-0.04185841914313958</v>
       </c>
       <c r="D20">
-        <v>0.07662659427659868</v>
+        <v>-0.08701738423083363</v>
       </c>
       <c r="E20">
-        <v>-0.03650421749859159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02397247186625079</v>
+      </c>
+      <c r="F20">
+        <v>-0.02394874736407999</v>
+      </c>
+      <c r="G20">
+        <v>-0.04246821718069647</v>
+      </c>
+      <c r="H20">
+        <v>0.05131196953722199</v>
+      </c>
+      <c r="I20">
+        <v>0.03942221796719018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.004574632741141069</v>
+        <v>-0.002180493672929787</v>
       </c>
       <c r="C21">
-        <v>0.03088932204987068</v>
+        <v>-0.04626340873779749</v>
       </c>
       <c r="D21">
-        <v>0.1406456442444385</v>
+        <v>-0.1233749149349463</v>
       </c>
       <c r="E21">
-        <v>-0.08135169939801874</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.032873883600858</v>
+      </c>
+      <c r="F21">
+        <v>-0.08463913321661261</v>
+      </c>
+      <c r="G21">
+        <v>-0.05974878123375492</v>
+      </c>
+      <c r="H21">
+        <v>0.1829288629225839</v>
+      </c>
+      <c r="I21">
+        <v>-0.07575726454822271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.001941696902939388</v>
+        <v>0.01507893147257124</v>
       </c>
       <c r="C22">
-        <v>0.06888791930611771</v>
+        <v>-0.08797148548916006</v>
       </c>
       <c r="D22">
-        <v>0.3022133368747784</v>
+        <v>-0.274415813402364</v>
       </c>
       <c r="E22">
-        <v>-0.03886619822579427</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.06118043891386616</v>
+      </c>
+      <c r="F22">
+        <v>-0.02027979920544195</v>
+      </c>
+      <c r="G22">
+        <v>0.5161400343832093</v>
+      </c>
+      <c r="H22">
+        <v>-0.2060735379237374</v>
+      </c>
+      <c r="I22">
+        <v>0.0005220609547186282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.002220173187146545</v>
+        <v>0.01191124721336424</v>
       </c>
       <c r="C23">
-        <v>0.0693595492139757</v>
+        <v>-0.0897464943793031</v>
       </c>
       <c r="D23">
-        <v>0.3016998641218949</v>
+        <v>-0.2768985912029999</v>
       </c>
       <c r="E23">
-        <v>-0.03905552662944048</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.05618038277153765</v>
+      </c>
+      <c r="F23">
+        <v>-0.02336868345495804</v>
+      </c>
+      <c r="G23">
+        <v>0.4999198182027874</v>
+      </c>
+      <c r="H23">
+        <v>-0.1961323750262821</v>
+      </c>
+      <c r="I23">
+        <v>-0.001500568741285298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02406407626561224</v>
+        <v>-0.009471126437701231</v>
       </c>
       <c r="C24">
-        <v>0.05768066696794424</v>
+        <v>-0.06744505679525151</v>
       </c>
       <c r="D24">
-        <v>0.05538180908398207</v>
+        <v>-0.04512498044063854</v>
       </c>
       <c r="E24">
-        <v>0.006192325188094107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.02950598150996593</v>
+      </c>
+      <c r="F24">
+        <v>0.009176503889110659</v>
+      </c>
+      <c r="G24">
+        <v>-0.04214018006892784</v>
+      </c>
+      <c r="H24">
+        <v>0.05992573228269417</v>
+      </c>
+      <c r="I24">
+        <v>0.02464990548573195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.0243189116496464</v>
+        <v>-0.01343817812130294</v>
       </c>
       <c r="C25">
-        <v>0.049244042248922</v>
+        <v>-0.06193923633086574</v>
       </c>
       <c r="D25">
-        <v>0.05349727933895376</v>
+        <v>-0.04794366219975404</v>
       </c>
       <c r="E25">
-        <v>-0.0008300380939492368</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01500657350110588</v>
+      </c>
+      <c r="F25">
+        <v>0.007424958617872437</v>
+      </c>
+      <c r="G25">
+        <v>-0.03283899488811043</v>
+      </c>
+      <c r="H25">
+        <v>0.0274929510331956</v>
+      </c>
+      <c r="I25">
+        <v>0.01851106562469145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.01004253089132845</v>
+        <v>-0.01742166735415403</v>
       </c>
       <c r="C26">
-        <v>0.0142253237717113</v>
+        <v>-0.02892161813673963</v>
       </c>
       <c r="D26">
-        <v>0.07369083200621611</v>
+        <v>-0.06698407793902364</v>
       </c>
       <c r="E26">
-        <v>-0.02830928274808482</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.03895672140947662</v>
+      </c>
+      <c r="F26">
+        <v>-0.04321560558069013</v>
+      </c>
+      <c r="G26">
+        <v>-0.04068781884901682</v>
+      </c>
+      <c r="H26">
+        <v>0.09918247000921854</v>
+      </c>
+      <c r="I26">
+        <v>-0.001187609593821797</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2574589398412977</v>
+        <v>-0.3180884238754878</v>
       </c>
       <c r="C28">
-        <v>-0.1953324750166383</v>
+        <v>0.08606652580672901</v>
       </c>
       <c r="D28">
-        <v>0.007198406728545923</v>
+        <v>0.02522416774089</v>
       </c>
       <c r="E28">
-        <v>-0.04661794826541116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.04849097580802014</v>
+      </c>
+      <c r="F28">
+        <v>-0.04792914842360113</v>
+      </c>
+      <c r="G28">
+        <v>0.05896116355329165</v>
+      </c>
+      <c r="H28">
+        <v>0.02506769030991636</v>
+      </c>
+      <c r="I28">
+        <v>0.007798956885524131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.000291825560609157</v>
+        <v>-0.001504094541845926</v>
       </c>
       <c r="C29">
-        <v>0.02149516924666742</v>
+        <v>-0.03854620518793537</v>
       </c>
       <c r="D29">
-        <v>0.08326406098638028</v>
+        <v>-0.09953883708882222</v>
       </c>
       <c r="E29">
-        <v>-0.02714853492522694</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.05938284274772417</v>
+      </c>
+      <c r="F29">
+        <v>-0.03046898891100381</v>
+      </c>
+      <c r="G29">
+        <v>-0.08309433971185103</v>
+      </c>
+      <c r="H29">
+        <v>0.1422747735548775</v>
+      </c>
+      <c r="I29">
+        <v>-0.007913220166354953</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02539258264311464</v>
+        <v>-0.01238179518619826</v>
       </c>
       <c r="C30">
-        <v>0.0644614744618018</v>
+        <v>-0.09277636802782338</v>
       </c>
       <c r="D30">
-        <v>0.1486090522593126</v>
+        <v>-0.1370413943591055</v>
       </c>
       <c r="E30">
-        <v>-0.02962720666164136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.05509517826649174</v>
+      </c>
+      <c r="F30">
+        <v>-0.01763022971911082</v>
+      </c>
+      <c r="G30">
+        <v>-0.008797758977121518</v>
+      </c>
+      <c r="H30">
+        <v>0.05248479048764552</v>
+      </c>
+      <c r="I30">
+        <v>0.04598193212011127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.03731482102425973</v>
+        <v>-0.00710636432927335</v>
       </c>
       <c r="C31">
-        <v>0.08385962402040643</v>
+        <v>-0.09434096996044593</v>
       </c>
       <c r="D31">
-        <v>0.0571500309485642</v>
+        <v>-0.0387885166658203</v>
       </c>
       <c r="E31">
-        <v>-0.01358356841623431</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.01955348750260381</v>
+      </c>
+      <c r="F31">
+        <v>-0.01363392515060859</v>
+      </c>
+      <c r="G31">
+        <v>-0.01622317956363466</v>
+      </c>
+      <c r="H31">
+        <v>0.04450203875998865</v>
+      </c>
+      <c r="I31">
+        <v>0.01070030187355765</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01422915218695312</v>
+        <v>-0.00956786267303613</v>
       </c>
       <c r="C32">
-        <v>0.03769505098602575</v>
+        <v>-0.04981251181220084</v>
       </c>
       <c r="D32">
-        <v>0.0808714424674658</v>
+        <v>-0.08513307776794739</v>
       </c>
       <c r="E32">
-        <v>-0.04813048261681596</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.004083779958222574</v>
+      </c>
+      <c r="F32">
+        <v>-0.04542205632705855</v>
+      </c>
+      <c r="G32">
+        <v>-0.02055461365489236</v>
+      </c>
+      <c r="H32">
+        <v>0.06686966286538512</v>
+      </c>
+      <c r="I32">
+        <v>-0.02170387002275938</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.007770368600651465</v>
+        <v>-0.004357648205701639</v>
       </c>
       <c r="C33">
-        <v>0.04181147483433977</v>
+        <v>-0.06101155630544913</v>
       </c>
       <c r="D33">
-        <v>0.1197488613735611</v>
+        <v>-0.1165691504639295</v>
       </c>
       <c r="E33">
-        <v>-0.03638710483443545</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.03054283591153276</v>
+      </c>
+      <c r="F33">
+        <v>-0.02248857211048432</v>
+      </c>
+      <c r="G33">
+        <v>-0.02807863734825644</v>
+      </c>
+      <c r="H33">
+        <v>0.05338424576285298</v>
+      </c>
+      <c r="I33">
+        <v>0.008864211880539853</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02156014612814609</v>
+        <v>-0.007063559943881545</v>
       </c>
       <c r="C34">
-        <v>0.05912082605899692</v>
+        <v>-0.06201770846138226</v>
       </c>
       <c r="D34">
-        <v>0.04936364185415854</v>
+        <v>-0.02574023324015632</v>
       </c>
       <c r="E34">
-        <v>0.04507542112904736</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.02791098524429101</v>
+      </c>
+      <c r="F34">
+        <v>0.04260333683901426</v>
+      </c>
+      <c r="G34">
+        <v>-0.03298666388967188</v>
+      </c>
+      <c r="H34">
+        <v>0.03630745102029711</v>
+      </c>
+      <c r="I34">
+        <v>0.006054017089070254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.002914974822960455</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.01212369680767938</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-0.03340994708726406</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.005930242936124071</v>
+      </c>
+      <c r="F35">
+        <v>-0.01583523630740392</v>
+      </c>
+      <c r="G35">
+        <v>-0.03560160516232512</v>
+      </c>
+      <c r="H35">
+        <v>0.05672772793700451</v>
+      </c>
+      <c r="I35">
+        <v>0.007464876258891803</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.005926517736842728</v>
+        <v>-0.01104833199427548</v>
       </c>
       <c r="C36">
-        <v>0.007165052239074997</v>
+        <v>-0.02258273085054167</v>
       </c>
       <c r="D36">
-        <v>0.07551588133460355</v>
+        <v>-0.07329028290311089</v>
       </c>
       <c r="E36">
-        <v>-0.04744962472070396</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.03020883725817144</v>
+      </c>
+      <c r="F36">
+        <v>-0.04730866654022158</v>
+      </c>
+      <c r="G36">
+        <v>-0.02647345801706436</v>
+      </c>
+      <c r="H36">
+        <v>0.06478600930247366</v>
+      </c>
+      <c r="I36">
+        <v>0.005969554815495714</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.006045505863463695</v>
+        <v>-0.01046228118815428</v>
       </c>
       <c r="C38">
-        <v>0.007096175891410882</v>
+        <v>-0.0262123333965167</v>
       </c>
       <c r="D38">
-        <v>0.07795852333941661</v>
+        <v>-0.08492808358014382</v>
       </c>
       <c r="E38">
-        <v>-0.003191390743775834</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.006165886972298547</v>
+      </c>
+      <c r="F38">
+        <v>-0.0009033554821100424</v>
+      </c>
+      <c r="G38">
+        <v>0.0003140314568653414</v>
+      </c>
+      <c r="H38">
+        <v>0.07403859317291177</v>
+      </c>
+      <c r="I38">
+        <v>0.03758985917857645</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.01707656060039513</v>
+        <v>-0.003447730107582455</v>
       </c>
       <c r="C39">
-        <v>0.05943819382418701</v>
+        <v>-0.07951458395989752</v>
       </c>
       <c r="D39">
-        <v>0.1008973221305626</v>
+        <v>-0.08653607385192216</v>
       </c>
       <c r="E39">
-        <v>0.008500841539014974</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.0518631250019278</v>
+      </c>
+      <c r="F39">
+        <v>0.01321487192867055</v>
+      </c>
+      <c r="G39">
+        <v>-0.06364599418631664</v>
+      </c>
+      <c r="H39">
+        <v>0.08371919182110736</v>
+      </c>
+      <c r="I39">
+        <v>0.02633269509249075</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.0175300837172565</v>
+        <v>-0.01234658341540535</v>
       </c>
       <c r="C40">
-        <v>0.02386101283848153</v>
+        <v>-0.03941131605199959</v>
       </c>
       <c r="D40">
-        <v>0.1097346720906435</v>
+        <v>-0.09260025417893489</v>
       </c>
       <c r="E40">
-        <v>0.01060656559876012</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.04211877238426751</v>
+      </c>
+      <c r="F40">
+        <v>0.02295800772993805</v>
+      </c>
+      <c r="G40">
+        <v>0.01669138196536387</v>
+      </c>
+      <c r="H40">
+        <v>0.1103996334759601</v>
+      </c>
+      <c r="I40">
+        <v>-0.03818684231821751</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.009653155324189219</v>
+        <v>-0.01445453020328933</v>
       </c>
       <c r="C41">
-        <v>0.003778504326935056</v>
+        <v>-0.01959755672064821</v>
       </c>
       <c r="D41">
-        <v>0.03429320417872022</v>
+        <v>-0.04155638474633595</v>
       </c>
       <c r="E41">
-        <v>-0.02341281149864919</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.006161628625635815</v>
+      </c>
+      <c r="F41">
+        <v>-0.02248276990902897</v>
+      </c>
+      <c r="G41">
+        <v>-0.01414488487438134</v>
+      </c>
+      <c r="H41">
+        <v>0.04605964784152133</v>
+      </c>
+      <c r="I41">
+        <v>0.009064068467373721</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.0008445154653082878</v>
+        <v>-0.007036351047266038</v>
       </c>
       <c r="C43">
-        <v>0.004139801155809556</v>
+        <v>-0.01593718835360679</v>
       </c>
       <c r="D43">
-        <v>0.05101307120996143</v>
+        <v>-0.05051661275222054</v>
       </c>
       <c r="E43">
-        <v>-0.01799748557301457</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01101204286290395</v>
+      </c>
+      <c r="F43">
+        <v>-0.01980972471860782</v>
+      </c>
+      <c r="G43">
+        <v>-0.02024036356944509</v>
+      </c>
+      <c r="H43">
+        <v>0.0571050149561572</v>
+      </c>
+      <c r="I43">
+        <v>0.02721914313594325</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.02108642984048271</v>
+        <v>-0.01220315048515988</v>
       </c>
       <c r="C44">
-        <v>0.02285132395732786</v>
+        <v>-0.04889038882868128</v>
       </c>
       <c r="D44">
-        <v>0.0874392966997274</v>
+        <v>-0.1012480504150169</v>
       </c>
       <c r="E44">
-        <v>-0.04587893038673609</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.03512719692410853</v>
+      </c>
+      <c r="F44">
+        <v>-0.0329877796088163</v>
+      </c>
+      <c r="G44">
+        <v>0.0009527806665783898</v>
+      </c>
+      <c r="H44">
+        <v>0.07264914951453233</v>
+      </c>
+      <c r="I44">
+        <v>0.01950986244482086</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.006681609574240402</v>
+        <v>0.002082843696540627</v>
       </c>
       <c r="C46">
-        <v>0.03126900400731237</v>
+        <v>-0.04299269417449761</v>
       </c>
       <c r="D46">
-        <v>0.07588010419570961</v>
+        <v>-0.06900244456007572</v>
       </c>
       <c r="E46">
-        <v>-0.01709028122881139</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.04562610990552027</v>
+      </c>
+      <c r="F46">
+        <v>-0.02534847749245311</v>
+      </c>
+      <c r="G46">
+        <v>-0.04730539744537479</v>
+      </c>
+      <c r="H46">
+        <v>0.1263848141763212</v>
+      </c>
+      <c r="I46">
+        <v>0.0224259607131583</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.07855298471104781</v>
+        <v>-0.02991447921524711</v>
       </c>
       <c r="C47">
-        <v>0.1068035559307821</v>
+        <v>-0.1286534048955869</v>
       </c>
       <c r="D47">
-        <v>0.04866838644177436</v>
+        <v>-0.02204380704468644</v>
       </c>
       <c r="E47">
-        <v>-0.01334374797291758</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.009102750704386469</v>
+      </c>
+      <c r="F47">
+        <v>0.005688337428479914</v>
+      </c>
+      <c r="G47">
+        <v>-0.05530964883764841</v>
+      </c>
+      <c r="H47">
+        <v>0.02719857747389177</v>
+      </c>
+      <c r="I47">
+        <v>0.0198416304524567</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.00952049657520874</v>
+        <v>-0.01448522869285691</v>
       </c>
       <c r="C48">
-        <v>0.01675089277788621</v>
+        <v>-0.03393266377712204</v>
       </c>
       <c r="D48">
-        <v>0.06986106359550402</v>
+        <v>-0.07585973159749769</v>
       </c>
       <c r="E48">
-        <v>-0.04759619460788503</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.02123594835239843</v>
+      </c>
+      <c r="F48">
+        <v>-0.05278638123373876</v>
+      </c>
+      <c r="G48">
+        <v>-0.04122415201056201</v>
+      </c>
+      <c r="H48">
+        <v>0.1069903466635717</v>
+      </c>
+      <c r="I48">
+        <v>0.02058531996470089</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.03335998451955077</v>
+        <v>-0.01096606615561358</v>
       </c>
       <c r="C50">
-        <v>0.05811832345259087</v>
+        <v>-0.07590404549831876</v>
       </c>
       <c r="D50">
-        <v>0.05505988425510823</v>
+        <v>-0.0471913426751819</v>
       </c>
       <c r="E50">
-        <v>-0.005152732835911716</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01533189462923237</v>
+      </c>
+      <c r="F50">
+        <v>-0.005973439439760087</v>
+      </c>
+      <c r="G50">
+        <v>-0.003995566562409696</v>
+      </c>
+      <c r="H50">
+        <v>0.03171744895473291</v>
+      </c>
+      <c r="I50">
+        <v>0.02065258213728657</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.001458216253638289</v>
+        <v>0.001376826984239874</v>
       </c>
       <c r="C51">
-        <v>0.005485089565522533</v>
+        <v>-0.01647753041469258</v>
       </c>
       <c r="D51">
-        <v>0.05515269977914518</v>
+        <v>-0.05577874746983419</v>
       </c>
       <c r="E51">
-        <v>-0.01771598755288736</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.03790353619114795</v>
+      </c>
+      <c r="F51">
+        <v>-0.03675935592589901</v>
+      </c>
+      <c r="G51">
+        <v>-0.004845267847880684</v>
+      </c>
+      <c r="H51">
+        <v>0.06798984056269344</v>
+      </c>
+      <c r="I51">
+        <v>-0.01156108256022652</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1093640241852637</v>
+        <v>-0.05083536022160134</v>
       </c>
       <c r="C53">
-        <v>0.1243275187533168</v>
+        <v>-0.1576386186783887</v>
       </c>
       <c r="D53">
-        <v>-0.001349414505469473</v>
+        <v>0.02299408341273126</v>
       </c>
       <c r="E53">
-        <v>-0.0449108692050345</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02326579145584915</v>
+      </c>
+      <c r="F53">
+        <v>-0.04623178682173294</v>
+      </c>
+      <c r="G53">
+        <v>-0.007092090775336372</v>
+      </c>
+      <c r="H53">
+        <v>0.009908235614466469</v>
+      </c>
+      <c r="I53">
+        <v>0.01680045395390594</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.00978012381336509</v>
+        <v>-0.009494143952651352</v>
       </c>
       <c r="C54">
-        <v>0.02190146049384635</v>
+        <v>-0.03843464372493382</v>
       </c>
       <c r="D54">
-        <v>0.08493703599096215</v>
+        <v>-0.07738447479861806</v>
       </c>
       <c r="E54">
-        <v>-0.004956238392188775</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.02105678509685847</v>
+      </c>
+      <c r="F54">
+        <v>-0.0009667232331985439</v>
+      </c>
+      <c r="G54">
+        <v>-0.01883335439619564</v>
+      </c>
+      <c r="H54">
+        <v>0.08336210036520002</v>
+      </c>
+      <c r="I54">
+        <v>0.03403380031808077</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09466389548442194</v>
+        <v>-0.03929263714559865</v>
       </c>
       <c r="C55">
-        <v>0.1061717642497931</v>
+        <v>-0.1317261231881997</v>
       </c>
       <c r="D55">
-        <v>0.00635561953404276</v>
+        <v>0.03219385789808565</v>
       </c>
       <c r="E55">
-        <v>-0.003484436214377658</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.008651241640812088</v>
+      </c>
+      <c r="F55">
+        <v>-0.007923882242053907</v>
+      </c>
+      <c r="G55">
+        <v>-0.002476490011031802</v>
+      </c>
+      <c r="H55">
+        <v>0.005996144544735843</v>
+      </c>
+      <c r="I55">
+        <v>-0.0104401561407939</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1356952941874556</v>
+        <v>-0.05385011620213411</v>
       </c>
       <c r="C56">
-        <v>0.1441005248263647</v>
+        <v>-0.1919318421490394</v>
       </c>
       <c r="D56">
-        <v>0.007235727245654962</v>
+        <v>0.03215887215261768</v>
       </c>
       <c r="E56">
-        <v>0.003979201552959961</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.0267770966865495</v>
+      </c>
+      <c r="F56">
+        <v>-0.01281083491996482</v>
+      </c>
+      <c r="G56">
+        <v>0.03675162457028743</v>
+      </c>
+      <c r="H56">
+        <v>0.03709619213690497</v>
+      </c>
+      <c r="I56">
+        <v>-0.007729553736939279</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.01127381566327695</v>
+        <v>-0.0009376191786604253</v>
       </c>
       <c r="C58">
-        <v>0.01065687354759744</v>
+        <v>-0.05552984960567222</v>
       </c>
       <c r="D58">
-        <v>0.2175175789397369</v>
+        <v>-0.2897011324262811</v>
       </c>
       <c r="E58">
-        <v>-0.1075092947856951</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.02422240946419217</v>
+      </c>
+      <c r="F58">
+        <v>-0.1200412764305908</v>
+      </c>
+      <c r="G58">
+        <v>0.1643292496244603</v>
+      </c>
+      <c r="H58">
+        <v>0.005073445004471752</v>
+      </c>
+      <c r="I58">
+        <v>0.04205524223748913</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1803503388950293</v>
+        <v>-0.2543578730169913</v>
       </c>
       <c r="C59">
-        <v>-0.146130623463887</v>
+        <v>0.05647711619459981</v>
       </c>
       <c r="D59">
-        <v>0.0412308343669743</v>
+        <v>-0.05337082506721087</v>
       </c>
       <c r="E59">
-        <v>-0.02799647548764955</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.02541904794728523</v>
+      </c>
+      <c r="F59">
+        <v>-0.02556528219300987</v>
+      </c>
+      <c r="G59">
+        <v>0.01202019976864169</v>
+      </c>
+      <c r="H59">
+        <v>0.009592424974700031</v>
+      </c>
+      <c r="I59">
+        <v>-0.03568446543177674</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1836866005585032</v>
+        <v>-0.1481709891856837</v>
       </c>
       <c r="C60">
-        <v>0.09967928685620132</v>
+        <v>-0.17474946098989</v>
       </c>
       <c r="D60">
-        <v>0.2274732488894514</v>
+        <v>-0.09914076888691821</v>
       </c>
       <c r="E60">
-        <v>0.06736902516005668</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.1451768205478556</v>
+      </c>
+      <c r="F60">
+        <v>0.1992928087212874</v>
+      </c>
+      <c r="G60">
+        <v>-0.1255625722040008</v>
+      </c>
+      <c r="H60">
+        <v>-0.3241050357921152</v>
+      </c>
+      <c r="I60">
+        <v>-0.1123542118237124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.0253490152143377</v>
+        <v>-0.01015489306483399</v>
       </c>
       <c r="C61">
-        <v>0.05378150715437806</v>
+        <v>-0.07537851000742206</v>
       </c>
       <c r="D61">
-        <v>0.08329247779322639</v>
+        <v>-0.07079623465414583</v>
       </c>
       <c r="E61">
-        <v>0.007168403399795985</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.03792598916509531</v>
+      </c>
+      <c r="F61">
+        <v>0.01807929245336935</v>
+      </c>
+      <c r="G61">
+        <v>-0.06602974929181148</v>
+      </c>
+      <c r="H61">
+        <v>0.06306347154594649</v>
+      </c>
+      <c r="I61">
+        <v>0.01551537067074209</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.007022651241854099</v>
+        <v>-0.007918613599647814</v>
       </c>
       <c r="C63">
-        <v>0.02388056597795435</v>
+        <v>-0.03742450731437249</v>
       </c>
       <c r="D63">
-        <v>0.09087723725805953</v>
+        <v>-0.06731386337263601</v>
       </c>
       <c r="E63">
-        <v>-0.02644447094550599</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.05828908624813163</v>
+      </c>
+      <c r="F63">
+        <v>-0.02329483611721123</v>
+      </c>
+      <c r="G63">
+        <v>-0.0347553535572669</v>
+      </c>
+      <c r="H63">
+        <v>0.06943973082852151</v>
+      </c>
+      <c r="I63">
+        <v>0.01915725989320437</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.05830968257349965</v>
+        <v>-0.01496460534778898</v>
       </c>
       <c r="C64">
-        <v>0.08744057860178195</v>
+        <v>-0.1052924766901842</v>
       </c>
       <c r="D64">
-        <v>0.009494164710121855</v>
+        <v>-0.007399230842997841</v>
       </c>
       <c r="E64">
-        <v>-0.01348579799905665</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02151570477855157</v>
+      </c>
+      <c r="F64">
+        <v>-0.01124431457774375</v>
+      </c>
+      <c r="G64">
+        <v>-0.04565272921018802</v>
+      </c>
+      <c r="H64">
+        <v>0.03438110754079206</v>
+      </c>
+      <c r="I64">
+        <v>0.04182402380298468</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02445897234068675</v>
+        <v>-0.02004362163271239</v>
       </c>
       <c r="C65">
-        <v>0.01543590333398846</v>
+        <v>-0.04385739451139398</v>
       </c>
       <c r="D65">
-        <v>0.1078841011386177</v>
+        <v>-0.1145551937093054</v>
       </c>
       <c r="E65">
-        <v>-0.02018313905505437</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.04772261955788944</v>
+      </c>
+      <c r="F65">
+        <v>0.006010393884596244</v>
+      </c>
+      <c r="G65">
+        <v>-0.03625128559181242</v>
+      </c>
+      <c r="H65">
+        <v>-0.00592035340057638</v>
+      </c>
+      <c r="I65">
+        <v>0.03654337755851182</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02262443199486262</v>
+        <v>-0.000117128783809807</v>
       </c>
       <c r="C66">
-        <v>0.06863422368023715</v>
+        <v>-0.09823666456883268</v>
       </c>
       <c r="D66">
-        <v>0.1198547500074748</v>
+        <v>-0.1159044339355148</v>
       </c>
       <c r="E66">
-        <v>0.007545690591920837</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.04383471957162253</v>
+      </c>
+      <c r="F66">
+        <v>0.01343799759201389</v>
+      </c>
+      <c r="G66">
+        <v>-0.03049537643102742</v>
+      </c>
+      <c r="H66">
+        <v>0.07021700170592511</v>
+      </c>
+      <c r="I66">
+        <v>0.02470144264271274</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02394248526637098</v>
+        <v>-0.02021287843589673</v>
       </c>
       <c r="C67">
-        <v>0.02010930472696354</v>
+        <v>-0.03732050242334902</v>
       </c>
       <c r="D67">
-        <v>0.0397042806618771</v>
+        <v>-0.0407506086380327</v>
       </c>
       <c r="E67">
-        <v>0.02545540344752999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.01202327708964873</v>
+      </c>
+      <c r="F67">
+        <v>0.02946561346674458</v>
+      </c>
+      <c r="G67">
+        <v>-0.01453794731333661</v>
+      </c>
+      <c r="H67">
+        <v>0.06092615136925013</v>
+      </c>
+      <c r="I67">
+        <v>0.0304472132696771</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2024328911188298</v>
+        <v>-0.2775579464003112</v>
       </c>
       <c r="C68">
-        <v>-0.1564012832696728</v>
+        <v>0.06256936620234366</v>
       </c>
       <c r="D68">
-        <v>0.03231354992082399</v>
+        <v>-0.02933026554252068</v>
       </c>
       <c r="E68">
-        <v>-0.02185700082115233</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.002115182028474367</v>
+      </c>
+      <c r="F68">
+        <v>-0.02742857874721603</v>
+      </c>
+      <c r="G68">
+        <v>0.08047557092467469</v>
+      </c>
+      <c r="H68">
+        <v>-0.01658620849862689</v>
+      </c>
+      <c r="I68">
+        <v>-0.006232297572987916</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.05444683127574663</v>
+        <v>-0.01427950125944841</v>
       </c>
       <c r="C69">
-        <v>0.1165671595225131</v>
+        <v>-0.1181230788998376</v>
       </c>
       <c r="D69">
-        <v>0.07347591817272438</v>
+        <v>-0.0303576345549384</v>
       </c>
       <c r="E69">
-        <v>-0.00907433105243397</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.01038836086864061</v>
+      </c>
+      <c r="F69">
+        <v>0.01064022634975393</v>
+      </c>
+      <c r="G69">
+        <v>-0.03794595136951192</v>
+      </c>
+      <c r="H69">
+        <v>0.02281520992260454</v>
+      </c>
+      <c r="I69">
+        <v>0.002810841171264704</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2111024674099602</v>
+        <v>-0.276451174128363</v>
       </c>
       <c r="C71">
-        <v>-0.1802388207370014</v>
+        <v>0.07664019751684098</v>
       </c>
       <c r="D71">
-        <v>0.01828544864259138</v>
+        <v>-0.01638638337525822</v>
       </c>
       <c r="E71">
-        <v>-0.009800255898920132</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.0009702315450708888</v>
+      </c>
+      <c r="F71">
+        <v>-0.01504160212851493</v>
+      </c>
+      <c r="G71">
+        <v>0.03076192776928279</v>
+      </c>
+      <c r="H71">
+        <v>0.01663486974344439</v>
+      </c>
+      <c r="I71">
+        <v>0.006707448575404775</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1039504929565103</v>
+        <v>-0.05542070342842401</v>
       </c>
       <c r="C72">
-        <v>0.07277419400076621</v>
+        <v>-0.1278100998945048</v>
       </c>
       <c r="D72">
-        <v>0.1216127183361603</v>
+        <v>-0.06438983217800581</v>
       </c>
       <c r="E72">
-        <v>0.008717318143546938</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.06920495207941116</v>
+      </c>
+      <c r="F72">
+        <v>0.02750346253683154</v>
+      </c>
+      <c r="G72">
+        <v>-0.06097940801074449</v>
+      </c>
+      <c r="H72">
+        <v>0.02368659118751807</v>
+      </c>
+      <c r="I72">
+        <v>0.02420568607593689</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1732577001382783</v>
+        <v>-0.1379124151574269</v>
       </c>
       <c r="C73">
-        <v>0.06667906851816695</v>
+        <v>-0.1518039661322217</v>
       </c>
       <c r="D73">
-        <v>0.2753937633219866</v>
+        <v>-0.1047669559621616</v>
       </c>
       <c r="E73">
-        <v>0.1167627957700896</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.2622034825380304</v>
+      </c>
+      <c r="F73">
+        <v>0.2874806114225493</v>
+      </c>
+      <c r="G73">
+        <v>-0.2954200885751874</v>
+      </c>
+      <c r="H73">
+        <v>-0.3414745829192704</v>
+      </c>
+      <c r="I73">
+        <v>-0.03989843210936071</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1072787506074564</v>
+        <v>-0.04886808180535123</v>
       </c>
       <c r="C74">
-        <v>0.113463527576179</v>
+        <v>-0.1442773443488222</v>
       </c>
       <c r="D74">
-        <v>-0.02452181535806161</v>
+        <v>0.04346866235838527</v>
       </c>
       <c r="E74">
-        <v>-0.0359483357595734</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.008915883247333537</v>
+      </c>
+      <c r="F74">
+        <v>-0.03599190922418675</v>
+      </c>
+      <c r="G74">
+        <v>0.003076032208347631</v>
+      </c>
+      <c r="H74">
+        <v>-0.0194650243423282</v>
+      </c>
+      <c r="I74">
+        <v>-0.006499410230138304</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2323206455892456</v>
+        <v>-0.09788102180647544</v>
       </c>
       <c r="C75">
-        <v>0.1977532162927091</v>
+        <v>-0.2707213106800085</v>
       </c>
       <c r="D75">
-        <v>-0.09569569438285598</v>
+        <v>0.1309077317640785</v>
       </c>
       <c r="E75">
-        <v>0.06348076375519721</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.09029767241193171</v>
+      </c>
+      <c r="F75">
+        <v>0.03373268827361724</v>
+      </c>
+      <c r="G75">
+        <v>0.08692187283401857</v>
+      </c>
+      <c r="H75">
+        <v>0.06268187044509747</v>
+      </c>
+      <c r="I75">
+        <v>0.05375498566896531</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1382172688147319</v>
+        <v>-0.05571619196097005</v>
       </c>
       <c r="C76">
-        <v>0.1370793221179744</v>
+        <v>-0.1810751100808148</v>
       </c>
       <c r="D76">
-        <v>-0.0002233742813913674</v>
+        <v>0.04693177371075484</v>
       </c>
       <c r="E76">
-        <v>0.00945467676314455</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.01814937965173157</v>
+      </c>
+      <c r="F76">
+        <v>-0.001232090141034839</v>
+      </c>
+      <c r="G76">
+        <v>0.02442171016739559</v>
+      </c>
+      <c r="H76">
+        <v>0.0506543456541967</v>
+      </c>
+      <c r="I76">
+        <v>0.007239820096678747</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.01917041767288253</v>
+        <v>0.002862142206194677</v>
       </c>
       <c r="C77">
-        <v>0.06943968470403905</v>
+        <v>-0.1054299062737208</v>
       </c>
       <c r="D77">
-        <v>-0.02023360782072315</v>
+        <v>-0.3129127384849903</v>
       </c>
       <c r="E77">
-        <v>-0.01511754948745473</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.859130610231391</v>
+      </c>
+      <c r="F77">
+        <v>0.1792067203536346</v>
+      </c>
+      <c r="G77">
+        <v>-0.1227664162720786</v>
+      </c>
+      <c r="H77">
+        <v>-0.2004458747628498</v>
+      </c>
+      <c r="I77">
+        <v>0.02352433529307485</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.03078670015446651</v>
+        <v>-0.01576376934605174</v>
       </c>
       <c r="C78">
-        <v>0.07020363118081391</v>
+        <v>-0.09238278590940394</v>
       </c>
       <c r="D78">
-        <v>0.1486519283896373</v>
+        <v>-0.1130496743956878</v>
       </c>
       <c r="E78">
-        <v>-0.05234567064378989</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.06472147116111678</v>
+      </c>
+      <c r="F78">
+        <v>-0.04004891492001625</v>
+      </c>
+      <c r="G78">
+        <v>0.0192011613553683</v>
+      </c>
+      <c r="H78">
+        <v>0.0552172085504824</v>
+      </c>
+      <c r="I78">
+        <v>-0.04564577835884057</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.1021920099396712</v>
+        <v>-0.03420029899892311</v>
       </c>
       <c r="C79">
-        <v>0.1840139123203917</v>
+        <v>-0.1979680409848582</v>
       </c>
       <c r="D79">
-        <v>-0.2201219140159807</v>
+        <v>0.09055761746833627</v>
       </c>
       <c r="E79">
-        <v>-0.8769878823239657</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.05224303737251623</v>
+      </c>
+      <c r="F79">
+        <v>-0.8110375953426732</v>
+      </c>
+      <c r="G79">
+        <v>-0.2174721562332381</v>
+      </c>
+      <c r="H79">
+        <v>-0.3809717917951425</v>
+      </c>
+      <c r="I79">
+        <v>0.02522505888526594</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.00370655968955662</v>
+        <v>-0.004213455436449681</v>
       </c>
       <c r="C80">
-        <v>0.0451421799441504</v>
+        <v>-0.04447663036606121</v>
       </c>
       <c r="D80">
-        <v>0.05056199463088833</v>
+        <v>-0.03992406057349992</v>
       </c>
       <c r="E80">
-        <v>0.0006702368364237725</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.04544279491450928</v>
+      </c>
+      <c r="F80">
+        <v>0.001681904999090294</v>
+      </c>
+      <c r="G80">
+        <v>-0.01566794150915087</v>
+      </c>
+      <c r="H80">
+        <v>0.0197038642868746</v>
+      </c>
+      <c r="I80">
+        <v>-0.08946042251576591</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1189931368669231</v>
+        <v>-0.03871266366317073</v>
       </c>
       <c r="C81">
-        <v>0.1348106646595077</v>
+        <v>-0.1661141965809252</v>
       </c>
       <c r="D81">
-        <v>-0.08312132654977522</v>
+        <v>0.08433635000212565</v>
       </c>
       <c r="E81">
-        <v>-0.0221690953301451</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.04349955980286469</v>
+      </c>
+      <c r="F81">
+        <v>-0.05710328051165018</v>
+      </c>
+      <c r="G81">
+        <v>0.03295328227493064</v>
+      </c>
+      <c r="H81">
+        <v>0.0853315223955597</v>
+      </c>
+      <c r="I81">
+        <v>-0.0111720674656655</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.250732633326743</v>
+        <v>-0.08447407283294145</v>
       </c>
       <c r="C82">
-        <v>0.2918334737220089</v>
+        <v>-0.3179114342066427</v>
       </c>
       <c r="D82">
-        <v>-0.1895730325583631</v>
+        <v>0.2417770488693365</v>
       </c>
       <c r="E82">
-        <v>0.1961266982359007</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.05943865389143049</v>
+      </c>
+      <c r="F82">
+        <v>0.1214570909180302</v>
+      </c>
+      <c r="G82">
+        <v>0.05555962808354793</v>
+      </c>
+      <c r="H82">
+        <v>0.1357752606113028</v>
+      </c>
+      <c r="I82">
+        <v>-0.01706459950440173</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.009904166667506044</v>
+        <v>0.01548030169204132</v>
       </c>
       <c r="C83">
-        <v>0.0518270755614603</v>
+        <v>-0.01809791738305961</v>
       </c>
       <c r="D83">
-        <v>0.003735484325308502</v>
+        <v>-0.01529044655506278</v>
       </c>
       <c r="E83">
-        <v>-0.03106655984831253</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.0856870416033443</v>
+      </c>
+      <c r="F83">
+        <v>-0.06851077251145911</v>
+      </c>
+      <c r="G83">
+        <v>0.004204671716807606</v>
+      </c>
+      <c r="H83">
+        <v>0.1014740828061449</v>
+      </c>
+      <c r="I83">
+        <v>-0.9298674913140835</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.000542360811069999</v>
+        <v>0.003672236944002537</v>
       </c>
       <c r="C84">
-        <v>-0.001181963652216609</v>
+        <v>-0.01773676477499943</v>
       </c>
       <c r="D84">
-        <v>0.001175543843282879</v>
+        <v>-0.0438429496091032</v>
       </c>
       <c r="E84">
-        <v>0.002524430987772797</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.002110183703743385</v>
+      </c>
+      <c r="F84">
+        <v>-0.03029776037482633</v>
+      </c>
+      <c r="G84">
+        <v>0.0336898389562823</v>
+      </c>
+      <c r="H84">
+        <v>0.057142722885852</v>
+      </c>
+      <c r="I84">
+        <v>0.05307482004776812</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1424018498744904</v>
+        <v>-0.05452821196375123</v>
       </c>
       <c r="C85">
-        <v>0.13902636333095</v>
+        <v>-0.1836900492157055</v>
       </c>
       <c r="D85">
-        <v>-0.05657529151298622</v>
+        <v>0.09795502829098869</v>
       </c>
       <c r="E85">
-        <v>-0.03814954823878156</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.0006785873299384105</v>
+      </c>
+      <c r="F85">
+        <v>-0.06828725251154799</v>
+      </c>
+      <c r="G85">
+        <v>0.0248142556046679</v>
+      </c>
+      <c r="H85">
+        <v>0.00040990900153515</v>
+      </c>
+      <c r="I85">
+        <v>0.005624218519330429</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01738549431526911</v>
+        <v>-0.01122154274619475</v>
       </c>
       <c r="C86">
-        <v>0.009811935801471914</v>
+        <v>-0.03570381503800582</v>
       </c>
       <c r="D86">
-        <v>0.0965403047030358</v>
+        <v>-0.1101290823792459</v>
       </c>
       <c r="E86">
-        <v>-0.02374705409806421</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.01513658706040274</v>
+      </c>
+      <c r="F86">
+        <v>-0.003279117055944357</v>
+      </c>
+      <c r="G86">
+        <v>-0.02282787567176536</v>
+      </c>
+      <c r="H86">
+        <v>0.02340099318601327</v>
+      </c>
+      <c r="I86">
+        <v>0.01742310066021541</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02071916434485944</v>
+        <v>-0.01002488058884925</v>
       </c>
       <c r="C87">
-        <v>0.02614825993638931</v>
+        <v>-0.0603270580294916</v>
       </c>
       <c r="D87">
-        <v>0.1265670469176931</v>
+        <v>-0.1383996739195145</v>
       </c>
       <c r="E87">
-        <v>-0.05051414424800309</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.01173330014126073</v>
+      </c>
+      <c r="F87">
+        <v>-0.04036762130144318</v>
+      </c>
+      <c r="G87">
+        <v>0.02595372278751835</v>
+      </c>
+      <c r="H87">
+        <v>0.08603123739910977</v>
+      </c>
+      <c r="I87">
+        <v>-0.02217519146027689</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05204594750231051</v>
+        <v>-0.0312920896685519</v>
       </c>
       <c r="C88">
-        <v>0.04312726846586653</v>
+        <v>-0.06820922853950888</v>
       </c>
       <c r="D88">
-        <v>0.01739987507390229</v>
+        <v>-0.01523242844338915</v>
       </c>
       <c r="E88">
-        <v>-0.02873535705351396</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.02853109977854751</v>
+      </c>
+      <c r="F88">
+        <v>-0.01862140894429448</v>
+      </c>
+      <c r="G88">
+        <v>-0.01891787806942889</v>
+      </c>
+      <c r="H88">
+        <v>0.00303704460981508</v>
+      </c>
+      <c r="I88">
+        <v>0.02830420529483957</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3179626355473614</v>
+        <v>-0.4107128850159428</v>
       </c>
       <c r="C89">
-        <v>-0.3267014191750666</v>
+        <v>0.1469044753413095</v>
       </c>
       <c r="D89">
-        <v>0.01149843928066357</v>
+        <v>-0.03857989296265708</v>
       </c>
       <c r="E89">
-        <v>-0.08225024133719996</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.05199457409050608</v>
+      </c>
+      <c r="F89">
+        <v>-0.06055345738717566</v>
+      </c>
+      <c r="G89">
+        <v>-0.03131892555647928</v>
+      </c>
+      <c r="H89">
+        <v>0.1204523757853102</v>
+      </c>
+      <c r="I89">
+        <v>-0.09006345144812282</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2550611827131427</v>
+        <v>-0.3223462773598674</v>
       </c>
       <c r="C90">
-        <v>-0.2420029110399832</v>
+        <v>0.1001380683113023</v>
       </c>
       <c r="D90">
-        <v>0.0534012834663988</v>
+        <v>-0.03721398363822884</v>
       </c>
       <c r="E90">
-        <v>0.009101658617945816</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.01044128410893384</v>
+      </c>
+      <c r="F90">
+        <v>0.006292377086660508</v>
+      </c>
+      <c r="G90">
+        <v>0.06140538250472052</v>
+      </c>
+      <c r="H90">
+        <v>0.03035391325343811</v>
+      </c>
+      <c r="I90">
+        <v>-0.02734296363925621</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1553200727544702</v>
+        <v>-0.06356821744540965</v>
       </c>
       <c r="C91">
-        <v>0.1847216959779164</v>
+        <v>-0.2069962231572701</v>
       </c>
       <c r="D91">
-        <v>-0.1015155366284221</v>
+        <v>0.1104987574790794</v>
       </c>
       <c r="E91">
-        <v>-0.05935846919780315</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.05703170896319388</v>
+      </c>
+      <c r="F91">
+        <v>-0.06432135799622681</v>
+      </c>
+      <c r="G91">
+        <v>0.01166323069961935</v>
+      </c>
+      <c r="H91">
+        <v>-0.007212824816338226</v>
+      </c>
+      <c r="I91">
+        <v>-0.02497657911497204</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2402708009120263</v>
+        <v>-0.3405700352920197</v>
       </c>
       <c r="C92">
-        <v>-0.2635105016142406</v>
+        <v>0.1354589611465344</v>
       </c>
       <c r="D92">
-        <v>-0.06435983215484951</v>
+        <v>-0.003319361819036581</v>
       </c>
       <c r="E92">
-        <v>-0.01426436151277522</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.06402274616249604</v>
+      </c>
+      <c r="F92">
+        <v>-0.0294973355429818</v>
+      </c>
+      <c r="G92">
+        <v>0.01870630272127319</v>
+      </c>
+      <c r="H92">
+        <v>0.04038713299151942</v>
+      </c>
+      <c r="I92">
+        <v>0.13868979441639</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2818034292897415</v>
+        <v>-0.3361001985171577</v>
       </c>
       <c r="C93">
-        <v>-0.250712974467201</v>
+        <v>0.1068897933364463</v>
       </c>
       <c r="D93">
-        <v>0.005607080731474533</v>
+        <v>0.02030972442654269</v>
       </c>
       <c r="E93">
-        <v>-0.01247605935955578</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.02638773538008364</v>
+      </c>
+      <c r="F93">
+        <v>-0.004447246063933966</v>
+      </c>
+      <c r="G93">
+        <v>-0.00729396399685284</v>
+      </c>
+      <c r="H93">
+        <v>-0.02106120436919819</v>
+      </c>
+      <c r="I93">
+        <v>0.03397867658312015</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.293745008601291</v>
+        <v>-0.1209386901566881</v>
       </c>
       <c r="C94">
-        <v>0.268965308522686</v>
+        <v>-0.3496149051403413</v>
       </c>
       <c r="D94">
-        <v>-0.2879058680011816</v>
+        <v>0.358901571538768</v>
       </c>
       <c r="E94">
-        <v>0.2456566041387118</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.05321970574327764</v>
+      </c>
+      <c r="F94">
+        <v>0.1221357492498162</v>
+      </c>
+      <c r="G94">
+        <v>0.3049823776249437</v>
+      </c>
+      <c r="H94">
+        <v>0.09282885820511556</v>
+      </c>
+      <c r="I94">
+        <v>0.02272672252172925</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.01242025593979875</v>
+        <v>-0.01256037201784233</v>
       </c>
       <c r="C95">
-        <v>0.04378177145190611</v>
+        <v>-0.06653865250389775</v>
       </c>
       <c r="D95">
-        <v>-0.02805038271778431</v>
+        <v>-0.08687330000209367</v>
       </c>
       <c r="E95">
-        <v>0.01501416070536511</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.1565381792953984</v>
+      </c>
+      <c r="F95">
+        <v>0.03943320185986364</v>
+      </c>
+      <c r="G95">
+        <v>-0.2079640938815771</v>
+      </c>
+      <c r="H95">
+        <v>0.2656268587528963</v>
+      </c>
+      <c r="I95">
+        <v>0.127203475762813</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.001617292921964362</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0009107565958984158</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.000698406000833202</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.003656780426474902</v>
+      </c>
+      <c r="F97">
+        <v>-0.000391295944582092</v>
+      </c>
+      <c r="G97">
+        <v>-4.113994098665104e-06</v>
+      </c>
+      <c r="H97">
+        <v>0.003866231272014001</v>
+      </c>
+      <c r="I97">
+        <v>0.006047625867723159</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1499839279930829</v>
+        <v>-0.1203485628960789</v>
       </c>
       <c r="C98">
-        <v>0.08383706146178251</v>
+        <v>-0.1542766781439209</v>
       </c>
       <c r="D98">
-        <v>0.1802319685409323</v>
+        <v>-0.07505502847912614</v>
       </c>
       <c r="E98">
-        <v>0.1009345937093471</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.1786169339593278</v>
+      </c>
+      <c r="F98">
+        <v>0.2240323919004484</v>
+      </c>
+      <c r="G98">
+        <v>-0.2005767718164004</v>
+      </c>
+      <c r="H98">
+        <v>-0.2909708804385693</v>
+      </c>
+      <c r="I98">
+        <v>-0.0794542955495047</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.001014399920285568</v>
+        <v>-0.001981547053519816</v>
       </c>
       <c r="C101">
-        <v>0.02073417911466035</v>
+        <v>-0.03779721400575891</v>
       </c>
       <c r="D101">
-        <v>0.08283965232411991</v>
+        <v>-0.09874352762698814</v>
       </c>
       <c r="E101">
-        <v>-0.02787925039072522</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.05870909002684771</v>
+      </c>
+      <c r="F101">
+        <v>-0.03064053428300974</v>
+      </c>
+      <c r="G101">
+        <v>-0.08232783282964069</v>
+      </c>
+      <c r="H101">
+        <v>0.142894730975614</v>
+      </c>
+      <c r="I101">
+        <v>-0.007953796737683559</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1062918302689322</v>
+        <v>-0.02658924304092481</v>
       </c>
       <c r="C102">
-        <v>0.1573572337798156</v>
+        <v>-0.1480015646145381</v>
       </c>
       <c r="D102">
-        <v>-0.05487334838610169</v>
+        <v>0.09876359683795252</v>
       </c>
       <c r="E102">
-        <v>0.08279195690663622</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03616110107834922</v>
+      </c>
+      <c r="F102">
+        <v>0.07173353794078655</v>
+      </c>
+      <c r="G102">
+        <v>-0.01702875814130477</v>
+      </c>
+      <c r="H102">
+        <v>0.02540403986489791</v>
+      </c>
+      <c r="I102">
+        <v>-0.02441772642557699</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
